--- a/data/thongtin_ap.xlsx
+++ b/data/thongtin_ap.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,27 +40,12 @@
     <t>GoogleMap</t>
   </si>
   <si>
-    <t>binhhoa</t>
-  </si>
-  <si>
-    <t>binhtay</t>
-  </si>
-  <si>
     <t>binhdong</t>
   </si>
   <si>
-    <t>Ấp Bình Hòa</t>
-  </si>
-  <si>
-    <t>Ấp Bình Tây</t>
-  </si>
-  <si>
     <t>Ấp Bình Đông</t>
   </si>
   <si>
-    <t>120 ha</t>
-  </si>
-  <si>
     <t>95 ha</t>
   </si>
   <si>
@@ -95,13 +80,28 @@
   </si>
   <si>
     <t>https://goo.gl/maps/ghi789</t>
+  </si>
+  <si>
+    <t>ap1</t>
+  </si>
+  <si>
+    <t>Ấp 1</t>
+  </si>
+  <si>
+    <t>10,13</t>
+  </si>
+  <si>
+    <t>ap2</t>
+  </si>
+  <si>
+    <t>Ấp 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -255,6 +260,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -289,6 +295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,82 +506,82 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>3200</v>
+        <v>2146</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>2800</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>3050</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
